--- a/Question_Set2/Programming skills/Coding Intermediate level.xlsx
+++ b/Question_Set2/Programming skills/Coding Intermediate level.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The MEX number of a non-negative set of numbers is the smallest non-negative number that is not present in the set. For example, MEX({1 3 10})=0, and MEX({0 1 2 8})=3.Your task is to write the function updateMEX which takes a given array arr of length num and removes the minimum number of elements from it so that the MEX value of the modified array is not equal to the MEX value of the original array.The arguments are passed in the order: num, arrYour code should return the minimum number of elements that need to be removed from the array.If the task is not possible, then your code should return -1.Keep in mind:Array arr elements are non-negative integersArray elements are not necessarily distinct1 &amp;lt= num &amp;lt= 400 &amp;lt= arr[i] &amp;lt= 90Example 1Input:num = 4arr = 0 1 1 4Output:1 Explanation: The MEX of the input array is 2. If we remove the element "0" from it, we have a modified array of 1 1 4 with MEX = 0, which is not equal to 2. So, the answer is 1 as removing one element changed the MEX of the array.Example 2Input:num = 4arr = 1 2 3 4Output:-1Explanation: The MEX of the input array is 0. No matter what elements you remove from the array, the MEX remains unchanged. Hence we return -1.', 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "The MEX number of a non-negative set of numbers is the smallest non-negative number that is not present in the set. For example, MEX({1 3 10})=0, and MEX({0 1 2 8})=3.Your task is to write the function updateMEX which takes a given array arr of length num and removes the minimum number of elements from it so that the MEX value of the modified array is not equal to the MEX value of the original array.The arguments are passed in the order: num, arrYour code should return the minimum number of elements that need to be removed from the array.If the task is not possible, then your code should return -1.Keep in mind:Array arr elements are non-negative integersArray elements are not necessarily distinct1 &amp;lt= num &amp;lt= 400 &amp;lt= arr[i] &amp;lt= 90Example 1Input:num = 4arr = 0 1 1 4Output:1 Explanation: The MEX of the input array is 2. If we remove the element \"0\" from it, we have a modified array of 1 1 4 with MEX = 0, which is not equal to 2. So, the answer is 1 as removing one element changed the MEX of the array.Example 2Input:num = 4arr = 1 2 3 4Output:-1Explanation: The MEX of the input array is 0. No matter what elements you remove from the array, the MEX remains unchanged. Hence we return -1.",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
